--- a/natmiOut/OldD2/LR-pairs_lrc2p/Btc-Erbb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Btc-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +91,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H2">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N2">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O2">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P2">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q2">
-        <v>12.15039288699846</v>
+        <v>0.2000770462033334</v>
       </c>
       <c r="R2">
-        <v>12.15039288699846</v>
+        <v>1.20046227722</v>
       </c>
       <c r="S2">
-        <v>0.2934421572218294</v>
+        <v>0.003099864936804471</v>
       </c>
       <c r="T2">
-        <v>0.2934421572218294</v>
+        <v>0.00378868354828145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H3">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P3">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q3">
-        <v>10.67642699843994</v>
+        <v>0.1937483988755555</v>
       </c>
       <c r="R3">
-        <v>10.67642699843994</v>
+        <v>1.74373558988</v>
       </c>
       <c r="S3">
-        <v>0.2578446474102063</v>
+        <v>0.00300181294972724</v>
       </c>
       <c r="T3">
-        <v>0.2578446474102063</v>
+        <v>0.005503265256472933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H4">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N4">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O4">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P4">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q4">
-        <v>6.679448736583669</v>
+        <v>0.001059808557777778</v>
       </c>
       <c r="R4">
-        <v>6.679448736583669</v>
+        <v>0.009538277020000001</v>
       </c>
       <c r="S4">
-        <v>0.1613142772044078</v>
+        <v>1.641999144990334E-05</v>
       </c>
       <c r="T4">
-        <v>0.1613142772044078</v>
+        <v>3.0102997745428E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06428666666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.19286</v>
+      </c>
+      <c r="I5">
+        <v>0.01098433848962954</v>
+      </c>
+      <c r="J5">
+        <v>0.01638651024683679</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.213661</v>
+      </c>
+      <c r="O5">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P5">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q5">
+        <v>0.00457851782888889</v>
+      </c>
+      <c r="R5">
+        <v>0.04120666046</v>
+      </c>
+      <c r="S5">
+        <v>7.093660742013866E-05</v>
+      </c>
+      <c r="T5">
+        <v>0.0001300490648702083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06428666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.19286</v>
+      </c>
+      <c r="I6">
+        <v>0.01098433848962954</v>
+      </c>
+      <c r="J6">
+        <v>0.01638651024683679</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N6">
+        <v>5.291263</v>
+      </c>
+      <c r="O6">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P6">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q6">
+        <v>0.1133858869088889</v>
+      </c>
+      <c r="R6">
+        <v>1.02047298218</v>
+      </c>
+      <c r="S6">
+        <v>0.001756727929700343</v>
+      </c>
+      <c r="T6">
+        <v>0.003220633644569355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06428666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.19286</v>
+      </c>
+      <c r="I7">
+        <v>0.01098433848962954</v>
+      </c>
+      <c r="J7">
+        <v>0.01638651024683679</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.0507295</v>
+      </c>
+      <c r="N7">
+        <v>6.101459</v>
+      </c>
+      <c r="O7">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P7">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q7">
+        <v>0.1961212304566667</v>
+      </c>
+      <c r="R7">
+        <v>1.17672738274</v>
+      </c>
+      <c r="S7">
+        <v>0.003038576074527441</v>
+      </c>
+      <c r="T7">
+        <v>0.003713775734897413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.7882885</v>
+      </c>
+      <c r="H8">
+        <v>11.576577</v>
+      </c>
+      <c r="I8">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J8">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.1122635</v>
+      </c>
+      <c r="N8">
+        <v>6.224527</v>
+      </c>
+      <c r="O8">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P8">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q8">
+        <v>18.01467902601975</v>
+      </c>
+      <c r="R8">
+        <v>72.05871610407901</v>
+      </c>
+      <c r="S8">
+        <v>0.2791078383064173</v>
+      </c>
+      <c r="T8">
+        <v>0.2274187847418512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.90480831938983</v>
-      </c>
-      <c r="H5">
-        <v>3.90480831938983</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.04756672882646</v>
-      </c>
-      <c r="N5">
-        <v>3.04756672882646</v>
-      </c>
-      <c r="O5">
-        <v>0.2873989181635564</v>
-      </c>
-      <c r="P5">
-        <v>0.2873989181635564</v>
-      </c>
-      <c r="Q5">
-        <v>11.90016391661721</v>
-      </c>
-      <c r="R5">
-        <v>11.90016391661721</v>
-      </c>
-      <c r="S5">
-        <v>0.2873989181635564</v>
-      </c>
-      <c r="T5">
-        <v>0.2873989181635564</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.7882885</v>
+      </c>
+      <c r="H9">
+        <v>11.576577</v>
+      </c>
+      <c r="I9">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J9">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N9">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P9">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q9">
+        <v>17.444855788211</v>
+      </c>
+      <c r="R9">
+        <v>104.669134729266</v>
+      </c>
+      <c r="S9">
+        <v>0.2702793639332769</v>
+      </c>
+      <c r="T9">
+        <v>0.3303379342164454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.7882885</v>
+      </c>
+      <c r="H10">
+        <v>11.576577</v>
+      </c>
+      <c r="I10">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J10">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.049457</v>
+      </c>
+      <c r="O10">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P10">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q10">
+        <v>0.0954237947815</v>
+      </c>
+      <c r="R10">
+        <v>0.572542768689</v>
+      </c>
+      <c r="S10">
+        <v>0.001478434838943904</v>
+      </c>
+      <c r="T10">
+        <v>0.001806956711245326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.7882885</v>
+      </c>
+      <c r="H11">
+        <v>11.576577</v>
+      </c>
+      <c r="I11">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J11">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.213661</v>
+      </c>
+      <c r="O11">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P11">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q11">
+        <v>0.4122438363995001</v>
+      </c>
+      <c r="R11">
+        <v>2.473463018397</v>
+      </c>
+      <c r="S11">
+        <v>0.006387040583205484</v>
+      </c>
+      <c r="T11">
+        <v>0.007806299975360163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.7882885</v>
+      </c>
+      <c r="H12">
+        <v>11.576577</v>
+      </c>
+      <c r="I12">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J12">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N12">
+        <v>5.291263</v>
+      </c>
+      <c r="O12">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P12">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q12">
+        <v>10.2091189244585</v>
+      </c>
+      <c r="R12">
+        <v>61.254713546751</v>
+      </c>
+      <c r="S12">
+        <v>0.1581735156037536</v>
+      </c>
+      <c r="T12">
+        <v>0.1933211312617845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.7882885</v>
+      </c>
+      <c r="H13">
+        <v>11.576577</v>
+      </c>
+      <c r="I13">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J13">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.0507295</v>
+      </c>
+      <c r="N13">
+        <v>6.101459</v>
+      </c>
+      <c r="O13">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P13">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q13">
+        <v>17.65850248146075</v>
+      </c>
+      <c r="R13">
+        <v>70.634009925843</v>
+      </c>
+      <c r="S13">
+        <v>0.2735894682447733</v>
+      </c>
+      <c r="T13">
+        <v>0.2229223828464766</v>
       </c>
     </row>
   </sheetData>
